--- a/SQLServerScalarUDFPerformance/Miscelaneous/Timing.xlsx
+++ b/SQLServerScalarUDFPerformance/Miscelaneous/Timing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CPU TIME" sheetId="3" r:id="rId1"/>
     <sheet name="Elapsed Time" sheetId="4" r:id="rId2"/>
+    <sheet name="Elapsed Time DummyCalculations" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elapsed Time DummyCalculations'!$A$1:$C$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>UDF</t>
   </si>
@@ -1000,6 +1004,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Elapsed Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Elapsed Time DummyCalculations'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance data OnDisk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Elapsed Time DummyCalculations'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UDF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UDFInMemory</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UDFClr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Elapsed Time DummyCalculations'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55C6-42C9-977C-8A3B18B6A614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Elapsed Time DummyCalculations'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance data InMemory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Elapsed Time DummyCalculations'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UDF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UDFInMemory</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UDFClr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Elapsed Time DummyCalculations'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55C6-42C9-977C-8A3B18B6A614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="110046799"/>
+        <c:axId val="110048463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110046799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110048463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110048463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110046799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1080,6 +1486,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1584,6 +2030,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2135,6 +3084,41 @@
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2455,18 +3439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +3461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2488,7 +3472,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +3483,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +3494,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2521,7 +3505,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +3516,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2540,7 +3524,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2562,14 +3546,14 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +3564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +3575,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +3586,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +3597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2624,7 +3608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2635,7 +3619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +3627,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2655,4 +3639,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10191</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4141</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1506</v>
+      </c>
+      <c r="C4" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4">
+    <sortState ref="A2:C4">
+      <sortCondition descending="1" ref="B1:B4"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SQLServerScalarUDFPerformance/Miscelaneous/Timing.xlsx
+++ b/SQLServerScalarUDFPerformance/Miscelaneous/Timing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="678"/>
   </bookViews>
   <sheets>
-    <sheet name="CPU TIME" sheetId="3" r:id="rId1"/>
-    <sheet name="Elapsed Time" sheetId="4" r:id="rId2"/>
-    <sheet name="Elapsed Time DummyCalculations" sheetId="5" r:id="rId3"/>
+    <sheet name="Elapsd Time DummyCalculationsDA" sheetId="7" r:id="rId1"/>
+    <sheet name="CPU TIME IsEvenNumber" sheetId="3" r:id="rId2"/>
+    <sheet name="Elapsed Time IsEvenNumber" sheetId="4" r:id="rId3"/>
+    <sheet name="Elapsed Time DummyCalculations" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elapsed Time DummyCalculations'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Elapsed Time DummyCalculations'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>UDF</t>
   </si>
@@ -59,6 +60,9 @@
   </si>
   <si>
     <t>UDFExpanded</t>
+  </si>
+  <si>
+    <t>Elapsed time</t>
   </si>
 </sst>
 </file>
@@ -150,6 +154,369 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Elapsed time (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Elapsd Time DummyCalculationsDA'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elapsed time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Elapsd Time DummyCalculationsDA'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UDFInMemory</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UDF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UDFClr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Elapsd Time DummyCalculationsDA'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-846A-4EF2-9421-3C443F617E90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="584038223"/>
+        <c:axId val="584045711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584038223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584045711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584045711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584038223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="es-ES"/>
               <a:t>Elapsed time</a:t>
             </a:r>
@@ -197,7 +564,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CPU TIME'!$B$1</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,7 +585,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'CPU TIME'!$A$2:$A$8</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -247,7 +614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CPU TIME'!$B$2:$B$8</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -280,7 +647,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CPU TIME'!$C$1</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -301,7 +668,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'CPU TIME'!$A$2:$A$8</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -330,7 +697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CPU TIME'!$C$2:$C$8</c:f>
+              <c:f>'CPU TIME IsEvenNumber'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -560,7 +927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -641,7 +1008,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Elapsed Time'!$B$1</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -662,7 +1029,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Elapsed Time'!$A$2:$A$8</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -691,7 +1058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Elapsed Time'!$B$2:$B$8</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -724,7 +1091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Elapsed Time'!$C$1</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,7 +1112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Elapsed Time'!$A$2:$A$8</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -774,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Elapsed Time'!$C$2:$C$8</c:f>
+              <c:f>'Elapsed Time IsEvenNumber'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1004,7 +1371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1526,6 +1893,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3035,7 +3442,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3070,7 +4015,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3105,7 +4050,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3437,99 +4382,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2438</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2140</v>
+        <v>6493</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1672</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1672</v>
+        <v>21910</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>343</v>
-      </c>
-      <c r="C4" s="1">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31</v>
+        <v>221816</v>
       </c>
     </row>
   </sheetData>
@@ -3543,17 +4437,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3564,75 +4458,75 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2433</v>
+        <v>2438</v>
       </c>
       <c r="C2" s="1">
-        <v>2135</v>
+        <v>2140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1828</v>
+        <v>1672</v>
       </c>
       <c r="C3" s="1">
-        <v>1908</v>
+        <v>1672</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
-        <v>109</v>
+        <v>717</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1">
-        <v>43</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1">
-        <v>42</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3645,18 +4539,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3667,7 +4561,110 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2433</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1828</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>347</v>
+      </c>
+      <c r="C4" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +4675,7 @@
         <v>10229</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +4686,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3700,16 +4697,16 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
   </sheetData>
